--- a/biology/Histoire de la zoologie et de la botanique/Solomon_Herzenstein/Solomon_Herzenstein.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Solomon_Herzenstein/Solomon_Herzenstein.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Solomon Markovitch Herzenstein est un naturaliste russe, né en 1854 et mort en 1894.
 Diplômé de sciences naturelles et de mathématiques à l’université de Saint-Pétersbourg, il devient conservateur du musée de zoologie de l’Académie des sciences de Saint-Pétersbourg. En 1880, en 1884 et en 1887, il est chargé d’étudier et de récolter des mollusques et des poissons sur les côtes de Mourmansk et de la péninsule de Kola.
@@ -512,7 +524,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1890 :  Ichthyologische Bemerkungen aus dem Zoologischen Museum der Kaiserlichen Akademie der Wissenschaften. Mélanges Biol., Bull. Acad. Imp. Sci. St. Petersbourg v. 13 : 113-125.</t>
         </is>
@@ -542,7 +556,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Jewish Encyclopedia
  Portail de l’histoire de la zoologie et de la botanique   Portail de l’Empire russe                    </t>
